--- a/table-parser/test_data/Book1.xlsx
+++ b/table-parser/test_data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zak/repos/brainshare/table-parser/test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zak/repos/brainshare/table-parser/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646EB1F9-2BFA-F045-877E-FD29CE71D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB5407-2832-3E48-9428-90D28D9F3901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{53F7DA25-715E-3348-A149-2BA9B8257A69}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>mx-5</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C94E7-C09A-E54F-AED8-78E1F4FEF051}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,6 +439,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
